--- a/google_sheets_api/student_data.xlsx
+++ b/google_sheets_api/student_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umark\Documents\GitHub\ITProject\google_sheets_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12AEE5E-5794-44E1-8C0E-9E667E4E3A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A2ACB4-91D6-41A2-8A21-AE656D500944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="370" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
